--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://nyheder.tv2.dk/politik/2017-09-28-liberal-alliance-gaar-tilbage-i-ny-maaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dr.dk/nyheder/politik/maaling-roed-bloks-forspring-skrumper-gevaldigt</t>
   </si>
   <si>
     <t xml:space="preserve">http://nyheder.tv2.dk/politik/2017-10-26-blaa-blok-gaar-markant-frem-i-ny-maaling-solid-roed-foering-er-vaek</t>
@@ -58916,44 +58919,46 @@
         <v>10</v>
       </c>
       <c r="E1127" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1127" t="n">
-        <v>29.7</v>
+        <v>26.6</v>
       </c>
       <c r="G1127" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="H1127" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I1127" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="J1127" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="P1127" t="n">
         <v>4.8</v>
       </c>
-      <c r="K1127" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L1127"/>
-      <c r="M1127" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="N1127" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="O1127" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="P1127" t="n">
-        <v>4.7</v>
-      </c>
       <c r="Q1127" t="n">
-        <v>1563</v>
+        <v>1643</v>
       </c>
       <c r="R1127" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1128">
@@ -59065,7 +59070,63 @@
         <v>1017</v>
       </c>
       <c r="R1129" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>1049</v>
+      </c>
+      <c r="R1130" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://nyheder.tv2.dk/politik/2017-10-26-blaa-blok-gaar-markant-frem-i-ny-maaling-solid-roed-foering-er-vaek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.altinget.dk/artikel/maaling-blaa-blok-haler-ind</t>
   </si>
 </sst>
 </file>
@@ -59129,6 +59132,60 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L1131"/>
+      <c r="M1131" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>1503</v>
+      </c>
+      <c r="R1131" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -59186,6 +59186,62 @@
         <v>102</v>
       </c>
     </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>1035</v>
+      </c>
+      <c r="R1132" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.altinget.dk/artikel/maaling-blaa-blok-haler-ind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://voxmeter.dk/index.php/meningsmalinger/#</t>
   </si>
 </sst>
 </file>
@@ -59242,6 +59245,118 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>1507</v>
+      </c>
+      <c r="R1133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>1030</v>
+      </c>
+      <c r="R1134" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.altinget.dk/artikel/maaling-blaa-blok-haler-ind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://voxmeter.dk/index.php/meningsmalinger/#</t>
   </si>
 </sst>
 </file>
@@ -59354,7 +59351,63 @@
         <v>1030</v>
       </c>
       <c r="R1134" t="s">
-        <v>103</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>1025</v>
+      </c>
+      <c r="R1135" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.altinget.dk/artikel/maaling-blaa-blok-haler-ind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.altinget.dk/artikel/maaling-blaa-blok-taber-igen-terraen</t>
   </si>
 </sst>
 </file>
@@ -59410,6 +59413,116 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L1136"/>
+      <c r="M1136" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>8</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>1573</v>
+      </c>
+      <c r="R1136" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>6</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>1019</v>
+      </c>
+      <c r="R1137" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.altinget.dk/artikel/maaling-blaa-blok-taber-igen-terraen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://nyheder.tv2.dk/politik/2017-11-30-ny-maaling-kommunalvalgssejr-smitter-af-paa-mette-frederiksen</t>
   </si>
 </sst>
 </file>
@@ -59523,6 +59526,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>1001</v>
+      </c>
+      <c r="R1138" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://nyheder.tv2.dk/politik/2017-11-30-ny-maaling-kommunalvalgssejr-smitter-af-paa-mette-frederiksen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dr.dk/nyheder/politik/maaling-dansk-folkeparti-taber-terraen-s-i-medvind</t>
   </si>
 </sst>
 </file>
@@ -59582,6 +59585,118 @@
         <v>104</v>
       </c>
     </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>1262</v>
+      </c>
+      <c r="R1139" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>1737</v>
+      </c>
+      <c r="R1140" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -59697,6 +59697,62 @@
         <v>105</v>
       </c>
     </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>1047</v>
+      </c>
+      <c r="R1141" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -59753,6 +59753,118 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>29</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>1497</v>
+      </c>
+      <c r="R1142" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>1019</v>
+      </c>
+      <c r="R1143" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -59865,6 +59865,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>1635</v>
+      </c>
+      <c r="R1144" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -59921,6 +59921,174 @@
         <v>86</v>
       </c>
     </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>1598</v>
+      </c>
+      <c r="R1145" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>1602</v>
+      </c>
+      <c r="R1146" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>1019</v>
+      </c>
+      <c r="R1147" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.dr.dk/nyheder/politik/maaling-dansk-folkeparti-taber-terraen-s-i-medvind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://nyheder.tv2.dk/politik/2017-12-22-liberal-alliance-droppede-truslerne-nu-bliver-de-straffet-af-vaelgerne</t>
   </si>
 </sst>
 </file>
@@ -60089,6 +60092,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>1013</v>
+      </c>
+      <c r="R1148" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://nyheder.tv2.dk/politik/2017-12-22-liberal-alliance-droppede-truslerne-nu-bliver-de-straffet-af-vaelgerne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dr.dk/nyheder/politik/maaling-socialdemokratiet-staar-til-bedste-valg-siden-2001</t>
   </si>
 </sst>
 </file>
@@ -60148,6 +60151,62 @@
         <v>106</v>
       </c>
     </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>1768</v>
+      </c>
+      <c r="R1149" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -60207,6 +60207,118 @@
         <v>107</v>
       </c>
     </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>1035</v>
+      </c>
+      <c r="R1150" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>1410</v>
+      </c>
+      <c r="R1151" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.dr.dk/nyheder/politik/maaling-socialdemokratiet-staar-til-bedste-valg-siden-2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.b.dk/politiko/ny-maaling-efter-magtkamp-nedtur-til-la-og-df.-optur-til-venstre</t>
   </si>
 </sst>
 </file>
@@ -60319,6 +60322,62 @@
         <v>86</v>
       </c>
     </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>1535</v>
+      </c>
+      <c r="R1152" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -60378,6 +60378,62 @@
         <v>108</v>
       </c>
     </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>1018</v>
+      </c>
+      <c r="R1153" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -60434,6 +60434,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>1018</v>
+      </c>
+      <c r="R1154" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.b.dk/politiko/ny-maaling-efter-magtkamp-nedtur-til-la-og-df.-optur-til-venstre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://nyheder.tv2.dk/politik/2018-01-25-alternativet-taber-pusten-efter-moegsager-daarligste-maaling-siden-valget</t>
   </si>
 </sst>
 </file>
@@ -60490,6 +60493,62 @@
         <v>86</v>
       </c>
     </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>1014</v>
+      </c>
+      <c r="R1155" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -60549,6 +60549,118 @@
         <v>109</v>
       </c>
     </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>1460</v>
+      </c>
+      <c r="R1156" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>1017</v>
+      </c>
+      <c r="R1157" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://nyheder.tv2.dk/politik/2018-01-25-alternativet-taber-pusten-efter-moegsager-daarligste-maaling-siden-valget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.altinget.dk/artikel/ny-maaling-roed-blok-udbygger-foering</t>
   </si>
 </sst>
 </file>
@@ -60661,6 +60664,60 @@
         <v>86</v>
       </c>
     </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L1158"/>
+      <c r="M1158" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>1501</v>
+      </c>
+      <c r="R1158" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -60718,6 +60718,62 @@
         <v>110</v>
       </c>
     </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>1024</v>
+      </c>
+      <c r="R1159" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -60774,6 +60774,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>1118</v>
+      </c>
+      <c r="R1160" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -60830,6 +60830,62 @@
         <v>86</v>
       </c>
     </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>1037</v>
+      </c>
+      <c r="R1161" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -60886,6 +60886,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>29</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>1518</v>
+      </c>
+      <c r="R1162" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.altinget.dk/artikel/ny-maaling-roed-blok-udbygger-foering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dr.dk/nyheder/politik/maaling-hvis-kvinderne-bestemte-var-danmark-roedt</t>
   </si>
 </sst>
 </file>
@@ -60942,6 +60945,118 @@
         <v>86</v>
       </c>
     </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>8</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>1573</v>
+      </c>
+      <c r="R1163" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>1026</v>
+      </c>
+      <c r="R1164" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -349,6 +349,9 @@
   <si>
     <t xml:space="preserve">https://www.dr.dk/nyheder/politik/maaling-hvis-kvinderne-bestemte-var-danmark-roedt</t>
   </si>
+  <si>
+    <t xml:space="preserve">http://nyheder.tv2.dk/politik/2018-02-22-alternativet-har-mistet-to-tredjedele-af-deres-vaelgere-paa-to-aar-viser-ny</t>
+  </si>
 </sst>
 </file>
 
@@ -61057,6 +61060,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>1011</v>
+      </c>
+      <c r="R1165" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -61116,6 +61116,62 @@
         <v>112</v>
       </c>
     </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>1018</v>
+      </c>
+      <c r="R1166" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -61172,6 +61172,62 @@
         <v>86</v>
       </c>
     </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>1044</v>
+      </c>
+      <c r="R1167" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -61228,6 +61228,118 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>1590</v>
+      </c>
+      <c r="R1168" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>1043</v>
+      </c>
+      <c r="R1169" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -61340,6 +61340,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>1063</v>
+      </c>
+      <c r="R1170" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -352,6 +352,12 @@
   <si>
     <t xml:space="preserve">http://nyheder.tv2.dk/politik/2018-02-22-alternativet-har-mistet-to-tredjedele-af-deres-vaelgere-paa-to-aar-viser-ny</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.altinget.dk/artikel/ny-maaling-mette-frederiksen-er-slaaet-tilbage-til-start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://nyheder.tv2.dk/politik/2018-03-22-ny-maaling-dansk-folkeparti-ligger-fortsat-langt-fra-valgresultatet</t>
+  </si>
 </sst>
 </file>
 
@@ -61396,6 +61402,118 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>1501</v>
+      </c>
+      <c r="R1171" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>1022</v>
+      </c>
+      <c r="R1172" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -61514,6 +61514,62 @@
         <v>114</v>
       </c>
     </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>1022</v>
+      </c>
+      <c r="R1173" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -358,6 +358,9 @@
   <si>
     <t xml:space="preserve">http://nyheder.tv2.dk/politik/2018-03-22-ny-maaling-dansk-folkeparti-ligger-fortsat-langt-fra-valgresultatet</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.dr.dk/nyheder/politik/daarligste-maaling-i-seks-aar-liberal-alliance-naesten-halveret</t>
+  </si>
 </sst>
 </file>
 
@@ -61570,6 +61573,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>1682</v>
+      </c>
+      <c r="R1174" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -61629,6 +61629,62 @@
         <v>115</v>
       </c>
     </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>1031</v>
+      </c>
+      <c r="R1175" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -61685,6 +61685,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>1030</v>
+      </c>
+      <c r="R1176" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -61741,6 +61741,230 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>1631</v>
+      </c>
+      <c r="R1177" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>1412</v>
+      </c>
+      <c r="R1178" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>1100</v>
+      </c>
+      <c r="R1179" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>1513</v>
+      </c>
+      <c r="R1180" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -61965,6 +61965,62 @@
         <v>86</v>
       </c>
     </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>1024</v>
+      </c>
+      <c r="R1181" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -62021,6 +62021,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>9</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>1040</v>
+      </c>
+      <c r="R1182" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -361,6 +361,9 @@
   <si>
     <t xml:space="preserve">https://www.dr.dk/nyheder/politik/daarligste-maaling-i-seks-aar-liberal-alliance-naesten-halveret</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.altinget.dk/artikel/ny-maaling-enhedslisten-fastholder-fremgang</t>
+  </si>
 </sst>
 </file>
 
@@ -62077,6 +62080,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>1213</v>
+      </c>
+      <c r="R1183" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -62136,6 +62136,62 @@
         <v>116</v>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>1036</v>
+      </c>
+      <c r="R1184" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -364,6 +364,9 @@
   <si>
     <t xml:space="preserve">https://www.altinget.dk/artikel/ny-maaling-enhedslisten-fastholder-fremgang</t>
   </si>
+  <si>
+    <t xml:space="preserve">http://nyheder.tv2.dk/politik/2018-04-26-ny-maaling-bedste-resultat-for-roed-blok-i-over-et-aar</t>
+  </si>
 </sst>
 </file>
 
@@ -62192,6 +62195,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>1010</v>
+      </c>
+      <c r="R1185" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -62251,6 +62251,62 @@
         <v>117</v>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>1002</v>
+      </c>
+      <c r="R1186" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -62307,6 +62307,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>9</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>1040</v>
+      </c>
+      <c r="R1187" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -62363,6 +62363,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>1031</v>
+      </c>
+      <c r="R1188" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -367,6 +367,9 @@
   <si>
     <t xml:space="preserve">http://nyheder.tv2.dk/politik/2018-04-26-ny-maaling-bedste-resultat-for-roed-blok-i-over-et-aar</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.dr.dk/nyheder/politik/meningsmaalinger</t>
+  </si>
 </sst>
 </file>
 
@@ -62419,6 +62422,62 @@
         <v>86</v>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>1486</v>
+      </c>
+      <c r="R1189" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -62478,6 +62478,118 @@
         <v>118</v>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>1210</v>
+      </c>
+      <c r="R1190" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>1024</v>
+      </c>
+      <c r="R1191" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -370,6 +370,9 @@
   <si>
     <t xml:space="preserve">https://www.dr.dk/nyheder/politik/meningsmaalinger</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://politiken.dk/indland/politik/art6549602/V%C3%A6lgerne-foretr%C3%A6kker-Mette-Frederiksen-som-statsminister-men-r%C3%B8d-blok-mister-opbakning</t>
+  </si>
 </sst>
 </file>
 
@@ -62590,6 +62593,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>1020</v>
+      </c>
+      <c r="R1192" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -62649,6 +62649,62 @@
         <v>119</v>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>9</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>1029</v>
+      </c>
+      <c r="R1193" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -62705,6 +62705,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>1135</v>
+      </c>
+      <c r="R1194" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -62761,6 +62761,62 @@
         <v>19</v>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>4</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>1031</v>
+      </c>
+      <c r="R1195" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -62817,6 +62817,174 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1195</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>1135</v>
+      </c>
+      <c r="R1196" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>21</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>1485</v>
+      </c>
+      <c r="R1197" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>1026</v>
+      </c>
+      <c r="R1198" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -62985,6 +62985,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>1208</v>
+      </c>
+      <c r="R1199" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -63041,6 +63041,62 @@
         <v>86</v>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>1032</v>
+      </c>
+      <c r="R1200" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -373,6 +373,9 @@
   <si>
     <t xml:space="preserve">https://politiken.dk/indland/politik/art6549602/V%C3%A6lgerne-foretr%C3%A6kker-Mette-Frederiksen-som-statsminister-men-r%C3%B8d-blok-mister-opbakning</t>
   </si>
+  <si>
+    <t xml:space="preserve">http://nyheder.tv2.dk/politik/2018-06-28-doedt-loeb-mellem-blokkene-uden-alternativets-mandater-viser-ny-maaling</t>
+  </si>
 </sst>
 </file>
 
@@ -63097,6 +63100,62 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>1022</v>
+      </c>
+      <c r="R1201" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -376,6 +376,9 @@
   <si>
     <t xml:space="preserve">http://nyheder.tv2.dk/politik/2018-06-28-doedt-loeb-mellem-blokkene-uden-alternativets-mandater-viser-ny-maaling</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.dr.dk/nyheder/politik/ny-maaling-alternativets-mandater-bliver-tungen-paa-vaegtskaalen</t>
+  </si>
 </sst>
 </file>
 
@@ -63156,6 +63159,62 @@
         <v>120</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>1679</v>
+      </c>
+      <c r="R1202" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -63215,6 +63215,62 @@
         <v>121</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>1031</v>
+      </c>
+      <c r="R1203" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -379,6 +379,9 @@
   <si>
     <t xml:space="preserve">https://www.dr.dk/nyheder/politik/ny-maaling-alternativets-mandater-bliver-tungen-paa-vaegtskaalen</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.bt.dk/politik/blaa-blok-tager-foeringen-men-trekantsdrama-truer</t>
+  </si>
 </sst>
 </file>
 
@@ -63271,6 +63274,118 @@
         <v>89</v>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>1604</v>
+      </c>
+      <c r="R1204" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>7</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>5</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>1594</v>
+      </c>
+      <c r="R1205" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -382,6 +382,12 @@
   <si>
     <t xml:space="preserve">https://www.bt.dk/politik/blaa-blok-tager-foeringen-men-trekantsdrama-truer</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/hansersej/status/1026575535898611712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://voxmeter.dk/meningsmalinger/</t>
+  </si>
 </sst>
 </file>
 
@@ -63386,6 +63392,118 @@
         <v>122</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>1131</v>
+      </c>
+      <c r="R1206" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>1023</v>
+      </c>
+      <c r="R1207" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -63504,6 +63504,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>26</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>1038</v>
+      </c>
+      <c r="R1208" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -63560,6 +63560,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>26</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>1031</v>
+      </c>
+      <c r="R1209" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -63616,6 +63616,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>1207</v>
+      </c>
+      <c r="R1210" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -388,6 +388,9 @@
   <si>
     <t xml:space="preserve">https://voxmeter.dk/meningsmalinger/</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.dr.dk/nyheder/politik/ny-maaling-borgerlig-blok-i-fremgang</t>
+  </si>
 </sst>
 </file>
 
@@ -63672,6 +63675,62 @@
         <v>86</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>1579</v>
+      </c>
+      <c r="R1211" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -63731,6 +63731,62 @@
         <v>125</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>1041</v>
+      </c>
+      <c r="R1212" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -391,6 +391,9 @@
   <si>
     <t xml:space="preserve">https://www.dr.dk/nyheder/politik/ny-maaling-borgerlig-blok-i-fremgang</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/lassetv2/status/1035510765791465472</t>
+  </si>
 </sst>
 </file>
 
@@ -63787,6 +63790,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>8</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>1027</v>
+      </c>
+      <c r="R1213" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -63846,6 +63846,62 @@
         <v>126</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>1037</v>
+      </c>
+      <c r="R1214" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -63902,6 +63902,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>1043</v>
+      </c>
+      <c r="R1215" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -394,6 +394,9 @@
   <si>
     <t xml:space="preserve">https://twitter.com/lassetv2/status/1035510765791465472</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.altinget.dk/artikel/ny-maaling-radikale-mister-pusten-foer-landsmoede</t>
+  </si>
 </sst>
 </file>
 
@@ -63958,6 +63961,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1215</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>1215</v>
+      </c>
+      <c r="R1216" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64017,6 +64017,62 @@
         <v>127</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>1039</v>
+      </c>
+      <c r="R1217" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64073,6 +64073,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>1537</v>
+      </c>
+      <c r="R1218" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64129,6 +64129,62 @@
         <v>118</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>1046</v>
+      </c>
+      <c r="R1219" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -397,6 +397,9 @@
   <si>
     <t xml:space="preserve">https://www.altinget.dk/artikel/ny-maaling-radikale-mister-pusten-foer-landsmoede</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://politiken.dk/indland/art6729843/%C2%BBVi-er-den-kile-der-lige-nu-borer-sig-ind-i-det-systemsatte-Danmark%C2%AB</t>
+  </si>
 </sst>
 </file>
 
@@ -64185,6 +64188,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>870</v>
+      </c>
+      <c r="R1220" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64244,6 +64244,62 @@
         <v>128</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>1029</v>
+      </c>
+      <c r="R1221" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -400,6 +400,9 @@
   <si>
     <t xml:space="preserve">https://politiken.dk/indland/art6729843/%C2%BBVi-er-den-kile-der-lige-nu-borer-sig-ind-i-det-systemsatte-Danmark%C2%AB</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://borsen.dk/nyheder/politik/meningsmaalinger.html</t>
+  </si>
 </sst>
 </file>
 
@@ -64300,6 +64303,116 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>10</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q1222"/>
+      <c r="R1222" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>1025</v>
+      </c>
+      <c r="R1223" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64352,7 +64352,9 @@
       <c r="P1222" t="n">
         <v>3.9</v>
       </c>
-      <c r="Q1222"/>
+      <c r="Q1222" t="n">
+        <v>1157</v>
+      </c>
       <c r="R1222" t="s">
         <v>129</v>
       </c>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -403,6 +403,12 @@
   <si>
     <t xml:space="preserve">https://borsen.dk/nyheder/politik/meningsmaalinger.html</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.avisen.dk/meningsmaaling-procentvist-flertal-til-roed-blok_520442.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.berlingske.dk/barometeret</t>
+  </si>
 </sst>
 </file>
 
@@ -64415,6 +64421,118 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>1209</v>
+      </c>
+      <c r="R1224" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>1674</v>
+      </c>
+      <c r="R1225" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64533,6 +64533,62 @@
         <v>131</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>1016</v>
+      </c>
+      <c r="R1226" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64589,6 +64589,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>1032</v>
+      </c>
+      <c r="R1227" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -409,6 +409,9 @@
   <si>
     <t xml:space="preserve">https://www.berlingske.dk/barometeret</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.dr.dk/nyheder/politik/maaling-maendene-sender-nye-borgerlige-i-folketinget</t>
+  </si>
 </sst>
 </file>
 
@@ -64645,6 +64648,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>1528</v>
+      </c>
+      <c r="R1228" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64704,6 +64704,62 @@
         <v>132</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>1026</v>
+      </c>
+      <c r="R1229" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64760,6 +64760,62 @@
         <v>19</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>1033</v>
+      </c>
+      <c r="R1230" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64816,6 +64816,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>1029</v>
+      </c>
+      <c r="R1231" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64872,6 +64872,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>1040</v>
+      </c>
+      <c r="R1232" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -412,6 +412,9 @@
   <si>
     <t xml:space="preserve">https://www.dr.dk/nyheder/politik/maaling-maendene-sender-nye-borgerlige-i-folketinget</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.altinget.dk/artikel/ny-maaling-der-er-doedt-loeb-mellem-blokkene</t>
+  </si>
 </sst>
 </file>
 
@@ -64928,6 +64931,62 @@
         <v>124</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>1219</v>
+      </c>
+      <c r="R1233" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -64987,6 +64987,62 @@
         <v>133</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>1526</v>
+      </c>
+      <c r="R1234" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/polls.xlsx
+++ b/polls.xlsx
@@ -65043,6 +65043,62 @@
         <v>131</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>11</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>1043</v>
+      </c>
+      <c r="R1235" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
